--- a/control direct.xlsx
+++ b/control direct.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>up</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>fire</t>
+  </si>
+  <si>
+    <t>stairs</t>
   </si>
 </sst>
 </file>
@@ -366,7 +369,7 @@
   <dimension ref="A5:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -398,6 +401,9 @@
       </c>
     </row>
     <row r="12" spans="1:8">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
       <c r="D12" t="s">
         <v>4</v>
       </c>

--- a/control direct.xlsx
+++ b/control direct.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>up</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>stairs</t>
+  </si>
+  <si>
+    <t>lava</t>
   </si>
 </sst>
 </file>
@@ -369,7 +372,7 @@
   <dimension ref="A5:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -401,6 +404,9 @@
       </c>
     </row>
     <row r="12" spans="1:8">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>

--- a/control direct.xlsx
+++ b/control direct.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>up</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>lava</t>
+  </si>
+  <si>
+    <t>water</t>
   </si>
 </sst>
 </file>
@@ -372,7 +375,7 @@
   <dimension ref="A5:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -404,6 +407,9 @@
       </c>
     </row>
     <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
